--- a/results/israel/data/tga_AY.xlsx
+++ b/results/israel/data/tga_AY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\ashdod-yam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3682B3CF-A48F-4D17-84AC-29EC8986DFB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907E4BE-F96B-4BB7-883B-E438BC5C9095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="105" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGA701-Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="275">
   <si>
     <t>Name</t>
   </si>
@@ -812,6 +812,39 @@
   </si>
   <si>
     <t>Mass_550</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Area D acropolis</t>
+  </si>
+  <si>
+    <t>mudbrick</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Area D wall</t>
+  </si>
+  <si>
+    <t>Hellenistic area A</t>
+  </si>
+  <si>
+    <t>Builder's floor</t>
+  </si>
+  <si>
+    <t>PEM</t>
+  </si>
+  <si>
+    <t>mud plaster</t>
+  </si>
+  <si>
+    <t>mud mortar</t>
   </si>
 </sst>
 </file>
@@ -821,7 +854,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,6 +988,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1298,11 +1337,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1658,19 +1698,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1692,8 +1734,14 @@
       <c r="G1" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1763,14 @@
       <c r="G2" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1738,8 +1792,14 @@
       <c r="G3" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1761,8 +1821,14 @@
       <c r="G4" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1784,8 +1850,14 @@
       <c r="G5" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1807,8 +1879,14 @@
       <c r="G6" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1830,8 +1908,14 @@
       <c r="G7" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1853,8 +1937,14 @@
       <c r="G8" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1876,8 +1966,14 @@
       <c r="G9" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1899,8 +1995,14 @@
       <c r="G10" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1922,8 +2024,14 @@
       <c r="G11" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1945,8 +2053,14 @@
       <c r="G12" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1968,8 +2082,14 @@
       <c r="G13" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1991,8 +2111,14 @@
       <c r="G14" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2014,8 +2140,14 @@
       <c r="G15" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2037,8 +2169,14 @@
       <c r="G16" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2060,8 +2198,14 @@
       <c r="G17" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2083,8 +2227,14 @@
       <c r="G18" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>266</v>
+      </c>
+      <c r="I18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2106,8 +2256,14 @@
       <c r="G19" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2129,8 +2285,14 @@
       <c r="G20" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -2152,8 +2314,14 @@
       <c r="G21" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>266</v>
+      </c>
+      <c r="I21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -2175,8 +2343,14 @@
       <c r="G22" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>266</v>
+      </c>
+      <c r="I22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -2198,8 +2372,14 @@
       <c r="G23" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -2221,8 +2401,14 @@
       <c r="G24" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>266</v>
+      </c>
+      <c r="I24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -2244,8 +2430,14 @@
       <c r="G25" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -2267,8 +2459,14 @@
       <c r="G26" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -2290,8 +2488,14 @@
       <c r="G27" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -2313,8 +2517,14 @@
       <c r="G28" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -2336,8 +2546,14 @@
       <c r="G29" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -2359,8 +2575,14 @@
       <c r="G30" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -2382,8 +2604,14 @@
       <c r="G31" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -2405,8 +2633,14 @@
       <c r="G32" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -2428,8 +2662,14 @@
       <c r="G33" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -2451,8 +2691,14 @@
       <c r="G34" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
@@ -2474,8 +2720,14 @@
       <c r="G35" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -2497,8 +2749,14 @@
       <c r="G36" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2520,8 +2778,14 @@
       <c r="G37" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -2543,8 +2807,14 @@
       <c r="G38" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -2566,8 +2836,14 @@
       <c r="G39" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
@@ -2589,8 +2865,14 @@
       <c r="G40" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>266</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -2612,8 +2894,14 @@
       <c r="G41" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>61</v>
       </c>
@@ -2635,8 +2923,14 @@
       <c r="G42" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>62</v>
       </c>
@@ -2658,8 +2952,14 @@
       <c r="G43" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
@@ -2681,8 +2981,14 @@
       <c r="G44" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>64</v>
       </c>
@@ -2704,8 +3010,14 @@
       <c r="G45" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -2727,8 +3039,14 @@
       <c r="G46" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
@@ -2750,8 +3068,14 @@
       <c r="G47" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>70</v>
       </c>
@@ -2773,8 +3097,14 @@
       <c r="G48" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>71</v>
       </c>
@@ -2796,8 +3126,14 @@
       <c r="G49" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>26</v>
       </c>
@@ -2819,8 +3155,14 @@
       <c r="G50" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>73</v>
       </c>
@@ -2842,8 +3184,14 @@
       <c r="G51" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>74</v>
       </c>
@@ -2865,8 +3213,14 @@
       <c r="G52" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>77</v>
       </c>
@@ -2888,8 +3242,14 @@
       <c r="G53" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>78</v>
       </c>
@@ -2910,6 +3270,12 @@
       </c>
       <c r="G54" s="3" t="s">
         <v>259</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
